--- a/FORMATO - REPORTE EXTEMPORÁNEO DE NOTAS.xlsx
+++ b/FORMATO - REPORTE EXTEMPORÁNEO DE NOTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Procesos Ágiles de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE049D-3600-4FF8-A0A9-DD5687364E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D636790-CF6E-47DD-BB82-F296EF402F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -779,46 +779,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,10 +822,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,28 +836,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2270,7 +2274,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:M40"/>
+      <selection activeCell="K37" sqref="D37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,36 +2297,36 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="55" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="55" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="92" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="56"/>
@@ -2341,17 +2345,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="57" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="56"/>
@@ -2375,10 +2379,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="80">
         <v>45467</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2607,24 +2611,24 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="15"/>
       <c r="M20" s="6"/>
     </row>
@@ -2643,22 +2647,22 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="17"/>
       <c r="M22" s="6"/>
     </row>
@@ -2677,63 +2681,63 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76">
+      <c r="B26" s="66">
         <v>1053845913</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="19">
         <v>4</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2741,21 +2745,21 @@
       <c r="C27" s="38">
         <v>75099994</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="19">
         <v>4</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="K27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,153 +2767,153 @@
       <c r="C28" s="38">
         <v>1010013030</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="19">
         <v>5</v>
       </c>
-      <c r="K28" s="92" t="s">
+      <c r="K28" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="93"/>
-      <c r="M28" s="94"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="38">
         <v>1053858351</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="19">
         <v>5</v>
       </c>
-      <c r="K29" s="92" t="s">
+      <c r="K29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="93"/>
-      <c r="M29" s="94"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37"/>
       <c r="C30" s="38">
         <v>1053863907</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="19">
         <v>5</v>
       </c>
-      <c r="K30" s="92" t="s">
+      <c r="K30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="38">
         <v>1054999797</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="19">
         <v>5</v>
       </c>
-      <c r="K31" s="92" t="s">
+      <c r="K31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="94"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="38">
         <v>1053867415</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="19">
         <v>5</v>
       </c>
-      <c r="K32" s="92" t="s">
+      <c r="K32" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
       <c r="C33" s="38">
         <v>1053862122</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="19">
         <v>5</v>
       </c>
-      <c r="K33" s="92" t="s">
+      <c r="K33" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="93"/>
-      <c r="M33" s="94"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37"/>
       <c r="C34" s="38">
         <v>1053871275</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="19">
         <v>4</v>
       </c>
-      <c r="K34" s="91" t="s">
+      <c r="K34" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="55"/>
       <c r="M34" s="56"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2917,21 +2921,21 @@
       <c r="C35" s="38">
         <v>34001303</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="19">
         <v>4</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="55"/>
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2939,43 +2943,43 @@
       <c r="C36" s="38">
         <v>1010105304</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="19">
         <v>5</v>
       </c>
-      <c r="K36" s="92" t="s">
+      <c r="K36" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="C37" s="38">
         <v>1053765643</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="19">
-        <v>4</v>
-      </c>
-      <c r="K37" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="65"/>
+        <v>5</v>
+      </c>
+      <c r="K37" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="55"/>
       <c r="M37" s="56"/>
     </row>
     <row r="38" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,66 +2987,66 @@
       <c r="C38" s="38">
         <v>1053793498</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="19">
         <v>5</v>
       </c>
-      <c r="K38" s="92" t="s">
+      <c r="K38" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
       <c r="C39" s="38">
         <v>1053799963</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="19">
         <v>5</v>
       </c>
-      <c r="K39" s="92" t="s">
+      <c r="K39" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="94"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="52">
         <v>1053777791</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="19">
         <v>5</v>
       </c>
-      <c r="K40" s="92" t="s">
+      <c r="K40" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="93"/>
-      <c r="M40" s="94"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
@@ -3075,76 +3079,76 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
     </row>
     <row r="48" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21"/>
@@ -3223,42 +3227,42 @@
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -4389,23 +4393,27 @@
     <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
     <mergeCell ref="B53:E54"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B26:C26"/>
@@ -4422,27 +4430,23 @@
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:K4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4455,7 +4459,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:M30"/>
+      <selection activeCell="K37" sqref="D37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4478,36 +4482,36 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="55" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="55" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="92" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="56"/>
@@ -4526,17 +4530,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="57" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="56"/>
@@ -4560,10 +4564,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="80">
         <v>45467</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4792,24 +4796,24 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="17"/>
       <c r="M20" s="6"/>
     </row>
@@ -4828,22 +4832,22 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="17"/>
       <c r="M22" s="6"/>
     </row>
@@ -4862,63 +4866,63 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76">
+      <c r="B26" s="66">
         <v>1053845913</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="19">
         <v>4</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4926,153 +4930,153 @@
       <c r="C27" s="38">
         <v>75099994</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="19">
         <v>4.5</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37"/>
       <c r="C28" s="38">
         <v>1010013030</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="19">
         <v>4.5</v>
       </c>
-      <c r="K28" s="92" t="s">
+      <c r="K28" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="93"/>
-      <c r="M28" s="94"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="38">
         <v>1053858351</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="19">
         <v>5</v>
       </c>
-      <c r="K29" s="92" t="s">
+      <c r="K29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="93"/>
-      <c r="M29" s="94"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37"/>
       <c r="C30" s="38">
         <v>1053863907</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="19">
         <v>5</v>
       </c>
-      <c r="K30" s="92" t="s">
+      <c r="K30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="38">
         <v>1054999797</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="19">
         <v>5</v>
       </c>
-      <c r="K31" s="92" t="s">
+      <c r="K31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="94"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="38">
         <v>1053867415</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="19">
         <v>3.5</v>
       </c>
-      <c r="K32" s="92" t="s">
+      <c r="K32" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
       <c r="C33" s="38">
         <v>1053862122</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="19">
         <v>4</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5080,43 +5084,43 @@
       <c r="C34" s="38">
         <v>1053871275</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="19">
         <v>3.5</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="38">
         <v>34001303</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="19">
         <v>4</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="55"/>
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5124,21 +5128,21 @@
       <c r="C36" s="38">
         <v>1010105304</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="19">
         <v>4</v>
       </c>
-      <c r="K36" s="91" t="s">
+      <c r="K36" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="56"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5146,88 +5150,88 @@
       <c r="C37" s="38">
         <v>1053765643</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="19">
         <v>5</v>
       </c>
-      <c r="K37" s="92" t="s">
+      <c r="K37" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
       <c r="C38" s="38">
         <v>1053793498</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="19">
         <v>4.5</v>
       </c>
-      <c r="K38" s="92" t="s">
+      <c r="K38" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
       <c r="C39" s="38">
         <v>1053799963</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="19">
         <v>5</v>
       </c>
-      <c r="K39" s="92" t="s">
+      <c r="K39" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="94"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="52">
         <v>1053777791</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="19">
         <v>5</v>
       </c>
-      <c r="K40" s="92" t="s">
+      <c r="K40" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="93"/>
-      <c r="M40" s="94"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
@@ -5260,76 +5264,76 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
     </row>
     <row r="48" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21"/>
@@ -5408,42 +5412,42 @@
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -6574,11 +6578,43 @@
     <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B53:E54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="B43:M45"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="K36:M36"/>
@@ -6591,43 +6627,11 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="K40:M40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:K4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B53:E54"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="B55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6640,7 +6644,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M40"/>
+      <selection activeCell="D37" sqref="D37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6663,36 +6667,36 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="55" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="55" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="92" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="56"/>
@@ -6711,17 +6715,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="57" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="56"/>
@@ -6745,10 +6749,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="80">
         <v>45467</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -6977,22 +6981,22 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="41" t="s">
         <v>6</v>
       </c>
@@ -7013,22 +7017,22 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="17"/>
       <c r="M22" s="6"/>
     </row>
@@ -7047,63 +7051,63 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76">
+      <c r="B26" s="66">
         <v>1053845913</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="19">
         <v>5</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7111,21 +7115,21 @@
       <c r="C27" s="38">
         <v>75099994</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="19">
         <v>5</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="K27" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7133,21 +7137,21 @@
       <c r="C28" s="38">
         <v>1010013030</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="19">
         <v>5</v>
       </c>
-      <c r="K28" s="91" t="s">
+      <c r="K28" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,21 +7159,21 @@
       <c r="C29" s="38">
         <v>1053858351</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="19">
         <v>5</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7177,21 +7181,21 @@
       <c r="C30" s="38">
         <v>1053863907</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="19">
         <v>5</v>
       </c>
-      <c r="K30" s="91" t="s">
+      <c r="K30" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="65"/>
+      <c r="L30" s="55"/>
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7199,21 +7203,21 @@
       <c r="C31" s="38">
         <v>1054999797</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="19">
         <v>5</v>
       </c>
-      <c r="K31" s="91" t="s">
+      <c r="K31" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="65"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7221,21 +7225,21 @@
       <c r="C32" s="38">
         <v>1053867415</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="19">
         <v>5</v>
       </c>
-      <c r="K32" s="91" t="s">
+      <c r="K32" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="65"/>
+      <c r="L32" s="55"/>
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7243,21 +7247,21 @@
       <c r="C33" s="38">
         <v>1053862122</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="19">
         <v>5</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7265,21 +7269,21 @@
       <c r="C34" s="38">
         <v>1053871275</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="19">
         <v>5</v>
       </c>
-      <c r="K34" s="91" t="s">
+      <c r="K34" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="55"/>
       <c r="M34" s="56"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7287,21 +7291,21 @@
       <c r="C35" s="38">
         <v>34001303</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="19">
         <v>5</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="55"/>
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7309,21 +7313,21 @@
       <c r="C36" s="38">
         <v>1010105304</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="19">
         <v>5</v>
       </c>
-      <c r="K36" s="91" t="s">
+      <c r="K36" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="56"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7331,21 +7335,21 @@
       <c r="C37" s="38">
         <v>1053765643</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="19">
         <v>5</v>
       </c>
-      <c r="K37" s="91" t="s">
+      <c r="K37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="65"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="56"/>
     </row>
     <row r="38" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7353,21 +7357,21 @@
       <c r="C38" s="38">
         <v>1053793498</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="19">
         <v>5</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="K38" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="65"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7375,43 +7379,43 @@
       <c r="C39" s="38">
         <v>1053799963</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="19">
         <v>5</v>
       </c>
-      <c r="K39" s="91" t="s">
+      <c r="K39" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="65"/>
+      <c r="L39" s="55"/>
       <c r="M39" s="56"/>
     </row>
     <row r="40" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="52">
         <v>1053777791</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="19">
         <v>5</v>
       </c>
-      <c r="K40" s="91" t="s">
+      <c r="K40" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="65"/>
+      <c r="L40" s="55"/>
       <c r="M40" s="56"/>
     </row>
     <row r="41" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7445,76 +7449,76 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
     </row>
     <row r="48" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21"/>
@@ -7593,42 +7597,42 @@
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -8759,11 +8763,43 @@
     <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B53:E54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="B43:M45"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="K36:M36"/>
@@ -8776,43 +8812,11 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="K40:M40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:K4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B53:E54"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="B55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8825,7 +8829,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:I30"/>
+      <selection activeCell="K37" sqref="D37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8848,36 +8852,36 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="55" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="55" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="92" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="56"/>
@@ -8896,17 +8900,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="57" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="56"/>
@@ -8930,10 +8934,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="80">
         <v>45467</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -9162,22 +9166,22 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="41" t="s">
         <v>6</v>
       </c>
@@ -9198,22 +9202,22 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="17"/>
       <c r="M22" s="6"/>
     </row>
@@ -9232,63 +9236,63 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76">
+      <c r="B26" s="66">
         <v>1053845913</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="19">
         <v>5</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9296,21 +9300,21 @@
       <c r="C27" s="38">
         <v>75099994</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="19">
         <v>5</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="K27" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9318,21 +9322,21 @@
       <c r="C28" s="38">
         <v>1010013030</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="19">
         <v>5</v>
       </c>
-      <c r="K28" s="91" t="s">
+      <c r="K28" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9340,21 +9344,21 @@
       <c r="C29" s="38">
         <v>1053858351</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="19">
         <v>5</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9362,21 +9366,21 @@
       <c r="C30" s="38">
         <v>1053863907</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="19">
         <v>5</v>
       </c>
-      <c r="K30" s="91" t="s">
+      <c r="K30" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="65"/>
+      <c r="L30" s="55"/>
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9384,21 +9388,21 @@
       <c r="C31" s="38">
         <v>1054999797</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="19">
         <v>5</v>
       </c>
-      <c r="K31" s="91" t="s">
+      <c r="K31" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="65"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9406,21 +9410,21 @@
       <c r="C32" s="38">
         <v>1053867415</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="19">
         <v>5</v>
       </c>
-      <c r="K32" s="91" t="s">
+      <c r="K32" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="65"/>
+      <c r="L32" s="55"/>
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9428,21 +9432,21 @@
       <c r="C33" s="38">
         <v>1053862122</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="19">
         <v>5</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9450,21 +9454,21 @@
       <c r="C34" s="38">
         <v>1053871275</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="19">
         <v>5</v>
       </c>
-      <c r="K34" s="91" t="s">
+      <c r="K34" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="55"/>
       <c r="M34" s="56"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9472,21 +9476,21 @@
       <c r="C35" s="38">
         <v>34001303</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="19">
         <v>5</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="55"/>
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9494,21 +9498,21 @@
       <c r="C36" s="38">
         <v>1010105304</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="19">
         <v>5</v>
       </c>
-      <c r="K36" s="91" t="s">
+      <c r="K36" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="56"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9516,21 +9520,21 @@
       <c r="C37" s="38">
         <v>1053765643</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="19">
         <v>5</v>
       </c>
-      <c r="K37" s="91" t="s">
+      <c r="K37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="65"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="56"/>
     </row>
     <row r="38" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9538,21 +9542,21 @@
       <c r="C38" s="38">
         <v>1053793498</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="19">
         <v>5</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="K38" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="65"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9560,43 +9564,43 @@
       <c r="C39" s="38">
         <v>1053799963</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="19">
         <v>5</v>
       </c>
-      <c r="K39" s="91" t="s">
+      <c r="K39" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="65"/>
+      <c r="L39" s="55"/>
       <c r="M39" s="56"/>
     </row>
     <row r="40" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="52">
         <v>1053777791</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="19">
         <v>5</v>
       </c>
-      <c r="K40" s="91" t="s">
+      <c r="K40" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="65"/>
+      <c r="L40" s="55"/>
       <c r="M40" s="56"/>
     </row>
     <row r="41" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9630,76 +9634,76 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
     </row>
     <row r="48" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21"/>
@@ -9778,42 +9782,42 @@
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -10944,11 +10948,43 @@
     <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B53:E54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="B43:M45"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="K36:M36"/>
@@ -10961,43 +10997,11 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="K40:M40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:K4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B53:E54"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="B55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -11010,7 +11014,7 @@
   <dimension ref="A1:AD1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37:Q37"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11038,44 +11042,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="55" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="55" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="92" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="56"/>
@@ -11094,21 +11098,21 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="57" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="56"/>
@@ -11136,18 +11140,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="80">
         <v>45467</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -11190,10 +11194,10 @@
         <v>3</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="6"/>
       <c r="O8" s="34" t="s">
         <v>7</v>
@@ -11234,10 +11238,10 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="6"/>
       <c r="O10" s="34" t="s">
         <v>9</v>
@@ -11424,26 +11428,26 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="87" t="s">
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="53"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="6"/>
     </row>
@@ -11466,26 +11470,26 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="58" t="s">
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="53"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="17" t="s">
         <v>6</v>
       </c>
@@ -11510,37 +11514,37 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
       <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="56"/>
       <c r="J25" s="18" t="s">
         <v>66</v>
@@ -11557,25 +11561,25 @@
       <c r="N25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="78" t="s">
+      <c r="O25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="55"/>
       <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76">
+      <c r="B26" s="66">
         <v>1053845913</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="19">
         <v>4</v>
       </c>
@@ -11592,10 +11596,10 @@
         <f>+J26*0.15+K26*0.1+L26*0.15+M26*0.6</f>
         <v>4.75</v>
       </c>
-      <c r="O26" s="91" t="s">
+      <c r="O26" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="65"/>
+      <c r="P26" s="55"/>
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11603,14 +11607,14 @@
       <c r="C27" s="38">
         <v>75099994</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="19">
         <v>4</v>
       </c>
@@ -11627,10 +11631,10 @@
         <f t="shared" ref="N27:N40" si="0">+J27*0.15+K27*0.1+L27*0.15+M27*0.6</f>
         <v>4.8</v>
       </c>
-      <c r="O27" s="91" t="s">
+      <c r="O27" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="65"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11638,14 +11642,14 @@
       <c r="C28" s="38">
         <v>1010013030</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="19">
         <v>5</v>
       </c>
@@ -11662,25 +11666,25 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="O28" s="92" t="s">
+      <c r="O28" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="38">
         <v>1053858351</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="19">
         <v>5</v>
       </c>
@@ -11697,25 +11701,25 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O29" s="92" t="s">
+      <c r="O29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37"/>
       <c r="C30" s="38">
         <v>1053863907</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="19">
         <v>5</v>
       </c>
@@ -11732,25 +11736,25 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O30" s="92" t="s">
+      <c r="O30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="38">
         <v>1054999797</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="19">
         <v>5</v>
       </c>
@@ -11767,25 +11771,25 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O31" s="92" t="s">
+      <c r="O31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="38">
         <v>1053867415</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="19">
         <v>5</v>
       </c>
@@ -11802,25 +11806,25 @@
         <f t="shared" si="0"/>
         <v>4.8499999999999996</v>
       </c>
-      <c r="O32" s="92" t="s">
+      <c r="O32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
       <c r="C33" s="38">
         <v>1053862122</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="19">
         <v>5</v>
       </c>
@@ -11837,25 +11841,25 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O33" s="92" t="s">
+      <c r="O33" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37"/>
       <c r="C34" s="38">
         <v>1053871275</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="19">
         <v>4</v>
       </c>
@@ -11872,25 +11876,25 @@
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="O34" s="92" t="s">
+      <c r="O34" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="94"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="38">
         <v>34001303</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="19">
         <v>4</v>
       </c>
@@ -11907,25 +11911,25 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="O35" s="92" t="s">
+      <c r="O35" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="94"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37"/>
       <c r="C36" s="38">
         <v>1010105304</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="19">
         <v>5</v>
       </c>
@@ -11942,27 +11946,27 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O36" s="92" t="s">
+      <c r="O36" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="94"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="C37" s="38">
         <v>1053765643</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37" s="19">
         <v>5</v>
@@ -11975,27 +11979,27 @@
       </c>
       <c r="N37" s="19">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="O37" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="94"/>
+        <v>5</v>
+      </c>
+      <c r="O37" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="50"/>
     </row>
     <row r="38" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
       <c r="C38" s="38">
         <v>1053793498</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="19">
         <v>5</v>
       </c>
@@ -12012,25 +12016,25 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="O38" s="92" t="s">
+      <c r="O38" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="94"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
       <c r="C39" s="38">
         <v>1053799963</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="19">
         <v>5</v>
       </c>
@@ -12047,25 +12051,25 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O39" s="92" t="s">
+      <c r="O39" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="94"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="52">
         <v>1053777791</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="19">
         <v>5</v>
       </c>
@@ -12082,11 +12086,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O40" s="92" t="s">
+      <c r="O40" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="94"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
@@ -12127,96 +12131,96 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
     </row>
     <row r="46" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
     </row>
     <row r="47" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
     </row>
     <row r="48" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21"/>
@@ -12315,10 +12319,10 @@
       <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -12328,15 +12332,15 @@
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="59"/>
     </row>
     <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -12346,19 +12350,19 @@
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="72"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="62"/>
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
     </row>
     <row r="55" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -13533,43 +13537,11 @@
     <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:O4"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B53:E54"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="B43:Q45"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="O36:Q36"/>
@@ -13582,11 +13554,43 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B53:E54"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:O4"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
